--- a/group/06_robo_dog_3/設計書/ユースケース駆動開発_分析設計書_テンプレート.xlsx
+++ b/group/06_robo_dog_3/設計書/ユースケース駆動開発_分析設計書_テンプレート.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\azrfilsrv01\部門\情報ITクリエイター事業部\10_情報処理教育\20_実習科目教育\05_実習科目資料\2024年度入学生\26_オブジェクト指向分析設計\履修科目認定試験\第1回\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h_kosaki\Desktop\ohara_uml\group\06_robo_dog_3\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88558586-032E-4A85-A9AF-A0F4E1A71CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91E8ADB-706B-4DC9-A71B-F45A349C4DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="企画書" sheetId="14" r:id="rId1"/>
@@ -1278,127 +1278,154 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1416,54 +1443,153 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1473,132 +1599,6 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1623,7 +1623,7 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1650,7 +1650,7 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1695,7 +1695,7 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1735,6 +1735,104 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DA61D55-7782-AE0C-0DEF-79FC34C88CDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5283200" y="1060450"/>
+          <a:ext cx="4076700" cy="2619375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>631825</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54127B9E-EABA-D7A1-A667-E5884952258B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660400" y="933450"/>
+          <a:ext cx="1952625" cy="3333750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2005,13 +2103,13 @@
   </sheetPr>
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2038,7 +2136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -2055,7 +2153,7 @@
       <c r="N2" s="21"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:D2"/>
@@ -2083,9 +2181,9 @@
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="146" t="s">
         <v>27</v>
       </c>
@@ -2112,43 +2210,43 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="149"/>
       <c r="B2" s="150"/>
       <c r="C2" s="150"/>
       <c r="D2" s="151"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="86"/>
-    </row>
-    <row r="3" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="E2" s="95"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="83"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="149"/>
       <c r="B3" s="150"/>
       <c r="C3" s="150"/>
       <c r="D3" s="151"/>
-      <c r="E3" s="106" t="s">
+      <c r="E3" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="87"/>
-    </row>
-    <row r="4" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="84"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="152"/>
       <c r="B4" s="153"/>
       <c r="C4" s="153"/>
@@ -2158,14 +2256,14 @@
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="16"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="117"/>
-      <c r="M4" s="115"/>
-      <c r="N4" s="117"/>
-      <c r="O4" s="88"/>
-    </row>
-    <row r="5" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="85"/>
+    </row>
+    <row r="5" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="O2:O4"/>
@@ -2196,9 +2294,9 @@
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -2225,7 +2323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -2242,8 +2340,8 @@
       <c r="N2" s="21"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="4" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -2257,7 +2355,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2271,7 +2369,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -2285,7 +2383,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -2299,7 +2397,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2313,7 +2411,7 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -2327,7 +2425,7 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -2341,7 +2439,7 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -2355,7 +2453,7 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -2369,7 +2467,7 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -2383,7 +2481,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -2397,7 +2495,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -2411,7 +2509,7 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -2425,7 +2523,7 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="2:13" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:13" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -2439,7 +2537,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="2:13" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:13" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -2453,7 +2551,7 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="2:13" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:13" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -2494,9 +2592,9 @@
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="27" t="s">
         <v>6</v>
       </c>
@@ -2523,7 +2621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="30"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -2540,7 +2638,7 @@
       <c r="N2" s="21"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:D2"/>
@@ -2568,9 +2666,9 @@
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="33" t="s">
         <v>7</v>
       </c>
@@ -2597,7 +2695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="36"/>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
@@ -2614,7 +2712,7 @@
       <c r="N2" s="21"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:D2"/>
@@ -2638,19 +2736,19 @@
   </sheetPr>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="62"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="11" t="s">
         <v>1</v>
       </c>
@@ -2671,11 +2769,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="65"/>
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
       <c r="E2" s="14"/>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
@@ -2684,108 +2782,99 @@
       <c r="J2" s="14"/>
       <c r="K2" s="15"/>
       <c r="L2" s="16"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="58"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="42"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:15" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="4" spans="1:15" ht="27.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="59" t="s">
+    <row r="3" spans="1:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="4" spans="1:15" ht="27.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="46"/>
-    </row>
-    <row r="5" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="55"/>
+    </row>
+    <row r="5" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="39"/>
       <c r="B5" s="40"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="48"/>
-    </row>
-    <row r="6" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="52"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="56"/>
-    </row>
-    <row r="7" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="52"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="56"/>
-    </row>
-    <row r="8" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="52"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="56"/>
-    </row>
-    <row r="9" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="52"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="56"/>
-    </row>
-    <row r="10" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="52"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="56"/>
-    </row>
-    <row r="11" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="57"/>
+    </row>
+    <row r="6" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="65"/>
+    </row>
+    <row r="7" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="65"/>
+    </row>
+    <row r="8" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
+    </row>
+    <row r="9" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="61"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
+    </row>
+    <row r="10" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="61"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
+    </row>
+    <row r="11" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="39"/>
       <c r="B11" s="40"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51"/>
-    </row>
-    <row r="12" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="41"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="44"/>
-    </row>
-    <row r="13" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="60"/>
+    </row>
+    <row r="12" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="51"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="54"/>
+    </row>
+    <row r="13" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="J1:L1"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
@@ -2802,10 +2891,20 @@
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:L1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2816,19 +2915,19 @@
   </sheetPr>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="91"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="88"/>
       <c r="E1" s="11" t="s">
         <v>1</v>
       </c>
@@ -2849,237 +2948,230 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="92"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="86"/>
-    </row>
-    <row r="3" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="92"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="106" t="s">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="89"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="83"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="89"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="87"/>
-    </row>
-    <row r="4" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="95"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="97"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="84"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="92"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="14"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="16"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="117"/>
-      <c r="M4" s="115"/>
-      <c r="N4" s="117"/>
-      <c r="O4" s="88"/>
-    </row>
-    <row r="5" spans="1:15" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="6" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="101" t="s">
+      <c r="J4" s="80"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="85"/>
+    </row>
+    <row r="5" spans="1:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="6" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B6" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="102"/>
-      <c r="D6" s="103" t="s">
+      <c r="C6" s="67"/>
+      <c r="D6" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="105"/>
-    </row>
-    <row r="7" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="84" t="s">
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="70"/>
+    </row>
+    <row r="7" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B7" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="85"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="80"/>
-    </row>
-    <row r="8" spans="1:15" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="66" t="s">
+      <c r="C7" s="112"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="104"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B8" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="83"/>
-    </row>
-    <row r="9" spans="1:15" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="66" t="s">
+      <c r="C8" s="101"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="107"/>
+    </row>
+    <row r="9" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B9" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="83"/>
-    </row>
-    <row r="10" spans="1:15" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="66" t="s">
+      <c r="C9" s="101"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="106"/>
+      <c r="M9" s="107"/>
+    </row>
+    <row r="10" spans="1:15" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="72"/>
-    </row>
-    <row r="11" spans="1:15" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="66" t="s">
+      <c r="C10" s="101"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="110"/>
+    </row>
+    <row r="11" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B11" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="83"/>
-    </row>
-    <row r="12" spans="1:15" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="66" t="s">
+      <c r="C11" s="101"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="106"/>
+      <c r="M11" s="107"/>
+    </row>
+    <row r="12" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B12" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="77"/>
-    </row>
-    <row r="13" spans="1:15" ht="219.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="66" t="s">
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="100"/>
+    </row>
+    <row r="13" spans="1:15" ht="219.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B13" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="72"/>
-    </row>
-    <row r="14" spans="1:15" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="66" t="s">
+      <c r="C13" s="101"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="109"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="110"/>
+    </row>
+    <row r="14" spans="1:15" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B14" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="72"/>
-    </row>
-    <row r="15" spans="1:15" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="68" t="s">
+      <c r="C14" s="101"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="110"/>
+    </row>
+    <row r="15" spans="1:15" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B15" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="75"/>
-    </row>
-    <row r="16" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="116"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="116"/>
+      <c r="K15" s="116"/>
+      <c r="L15" s="116"/>
+      <c r="M15" s="117"/>
+    </row>
+    <row r="16" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="J2:L4"/>
-    <mergeCell ref="M2:N4"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D13:M13"/>
+    <mergeCell ref="D14:M14"/>
+    <mergeCell ref="D15:M15"/>
     <mergeCell ref="B12:M12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D7:M7"/>
@@ -3092,11 +3184,18 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D13:M13"/>
-    <mergeCell ref="D14:M14"/>
-    <mergeCell ref="D15:M15"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="J2:L4"/>
+    <mergeCell ref="M2:N4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3115,9 +3214,9 @@
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="122" t="s">
         <v>22</v>
       </c>
@@ -3144,43 +3243,43 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="125"/>
       <c r="B2" s="126"/>
       <c r="C2" s="126"/>
       <c r="D2" s="127"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="86"/>
-    </row>
-    <row r="3" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="E2" s="95"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="83"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="125"/>
       <c r="B3" s="126"/>
       <c r="C3" s="126"/>
       <c r="D3" s="127"/>
-      <c r="E3" s="106" t="s">
+      <c r="E3" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="87"/>
-    </row>
-    <row r="4" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="84"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="128"/>
       <c r="B4" s="129"/>
       <c r="C4" s="129"/>
@@ -3190,15 +3289,15 @@
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="16"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="117"/>
-      <c r="M4" s="115"/>
-      <c r="N4" s="117"/>
-      <c r="O4" s="88"/>
-    </row>
-    <row r="5" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J4" s="80"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="85"/>
+    </row>
+    <row r="5" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="120" t="s">
         <v>23</v>
       </c>
@@ -3206,91 +3305,91 @@
       <c r="C6" s="121"/>
       <c r="D6" s="121"/>
     </row>
-    <row r="7" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="121"/>
       <c r="B7" s="121"/>
       <c r="C7" s="121"/>
       <c r="D7" s="121"/>
     </row>
-    <row r="8" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="121"/>
       <c r="B8" s="121"/>
       <c r="C8" s="121"/>
       <c r="D8" s="121"/>
     </row>
-    <row r="9" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="121"/>
       <c r="B9" s="121"/>
       <c r="C9" s="121"/>
       <c r="D9" s="121"/>
     </row>
-    <row r="10" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="121"/>
       <c r="B10" s="121"/>
       <c r="C10" s="121"/>
       <c r="D10" s="121"/>
     </row>
-    <row r="11" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="121"/>
       <c r="B11" s="121"/>
       <c r="C11" s="121"/>
       <c r="D11" s="121"/>
     </row>
-    <row r="12" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="121"/>
       <c r="B12" s="121"/>
       <c r="C12" s="121"/>
       <c r="D12" s="121"/>
     </row>
-    <row r="13" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="121"/>
       <c r="B13" s="121"/>
       <c r="C13" s="121"/>
       <c r="D13" s="121"/>
     </row>
-    <row r="14" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="121"/>
       <c r="B14" s="121"/>
       <c r="C14" s="121"/>
       <c r="D14" s="121"/>
     </row>
-    <row r="15" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="121"/>
       <c r="B15" s="121"/>
       <c r="C15" s="121"/>
       <c r="D15" s="121"/>
     </row>
-    <row r="16" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="121"/>
       <c r="B16" s="121"/>
       <c r="C16" s="121"/>
       <c r="D16" s="121"/>
     </row>
-    <row r="17" spans="1:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="121"/>
       <c r="B17" s="121"/>
       <c r="C17" s="121"/>
       <c r="D17" s="121"/>
     </row>
-    <row r="18" spans="1:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="121"/>
       <c r="B18" s="121"/>
       <c r="C18" s="121"/>
       <c r="D18" s="121"/>
     </row>
-    <row r="19" spans="1:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="121"/>
       <c r="B19" s="121"/>
       <c r="C19" s="121"/>
       <c r="D19" s="121"/>
     </row>
-    <row r="20" spans="1:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="121"/>
       <c r="B20" s="121"/>
       <c r="C20" s="121"/>
       <c r="D20" s="121"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="118" t="s">
         <v>24</v>
       </c>
@@ -3298,67 +3397,67 @@
       <c r="C21" s="119"/>
       <c r="D21" s="119"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="119"/>
       <c r="B22" s="119"/>
       <c r="C22" s="119"/>
       <c r="D22" s="119"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="119"/>
       <c r="B23" s="119"/>
       <c r="C23" s="119"/>
       <c r="D23" s="119"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="119"/>
       <c r="B24" s="119"/>
       <c r="C24" s="119"/>
       <c r="D24" s="119"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="119"/>
       <c r="B25" s="119"/>
       <c r="C25" s="119"/>
       <c r="D25" s="119"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="119"/>
       <c r="B26" s="119"/>
       <c r="C26" s="119"/>
       <c r="D26" s="119"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="119"/>
       <c r="B27" s="119"/>
       <c r="C27" s="119"/>
       <c r="D27" s="119"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="119"/>
       <c r="B28" s="119"/>
       <c r="C28" s="119"/>
       <c r="D28" s="119"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="119"/>
       <c r="B29" s="119"/>
       <c r="C29" s="119"/>
       <c r="D29" s="119"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="119"/>
       <c r="B30" s="119"/>
       <c r="C30" s="119"/>
       <c r="D30" s="119"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="119"/>
       <c r="B31" s="119"/>
       <c r="C31" s="119"/>
       <c r="D31" s="119"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="119"/>
       <c r="B32" s="119"/>
       <c r="C32" s="119"/>
@@ -3396,9 +3495,9 @@
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="131" t="s">
         <v>25</v>
       </c>
@@ -3425,43 +3524,43 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="134"/>
       <c r="B2" s="135"/>
       <c r="C2" s="135"/>
       <c r="D2" s="136"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="86"/>
-    </row>
-    <row r="3" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="E2" s="95"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="83"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="134"/>
       <c r="B3" s="135"/>
       <c r="C3" s="135"/>
       <c r="D3" s="136"/>
-      <c r="E3" s="106" t="s">
+      <c r="E3" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="87"/>
-    </row>
-    <row r="4" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="84"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="137"/>
       <c r="B4" s="138"/>
       <c r="C4" s="138"/>
@@ -3471,15 +3570,15 @@
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="16"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="117"/>
-      <c r="M4" s="115"/>
-      <c r="N4" s="117"/>
-      <c r="O4" s="88"/>
-    </row>
-    <row r="5" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J4" s="80"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="85"/>
+    </row>
+    <row r="5" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="120" t="s">
         <v>23</v>
       </c>
@@ -3487,91 +3586,91 @@
       <c r="C6" s="121"/>
       <c r="D6" s="121"/>
     </row>
-    <row r="7" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="121"/>
       <c r="B7" s="121"/>
       <c r="C7" s="121"/>
       <c r="D7" s="121"/>
     </row>
-    <row r="8" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="121"/>
       <c r="B8" s="121"/>
       <c r="C8" s="121"/>
       <c r="D8" s="121"/>
     </row>
-    <row r="9" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="121"/>
       <c r="B9" s="121"/>
       <c r="C9" s="121"/>
       <c r="D9" s="121"/>
     </row>
-    <row r="10" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="121"/>
       <c r="B10" s="121"/>
       <c r="C10" s="121"/>
       <c r="D10" s="121"/>
     </row>
-    <row r="11" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="121"/>
       <c r="B11" s="121"/>
       <c r="C11" s="121"/>
       <c r="D11" s="121"/>
     </row>
-    <row r="12" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="121"/>
       <c r="B12" s="121"/>
       <c r="C12" s="121"/>
       <c r="D12" s="121"/>
     </row>
-    <row r="13" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="121"/>
       <c r="B13" s="121"/>
       <c r="C13" s="121"/>
       <c r="D13" s="121"/>
     </row>
-    <row r="14" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="121"/>
       <c r="B14" s="121"/>
       <c r="C14" s="121"/>
       <c r="D14" s="121"/>
     </row>
-    <row r="15" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="121"/>
       <c r="B15" s="121"/>
       <c r="C15" s="121"/>
       <c r="D15" s="121"/>
     </row>
-    <row r="16" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="121"/>
       <c r="B16" s="121"/>
       <c r="C16" s="121"/>
       <c r="D16" s="121"/>
     </row>
-    <row r="17" spans="1:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="121"/>
       <c r="B17" s="121"/>
       <c r="C17" s="121"/>
       <c r="D17" s="121"/>
     </row>
-    <row r="18" spans="1:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="121"/>
       <c r="B18" s="121"/>
       <c r="C18" s="121"/>
       <c r="D18" s="121"/>
     </row>
-    <row r="19" spans="1:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="121"/>
       <c r="B19" s="121"/>
       <c r="C19" s="121"/>
       <c r="D19" s="121"/>
     </row>
-    <row r="20" spans="1:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="121"/>
       <c r="B20" s="121"/>
       <c r="C20" s="121"/>
       <c r="D20" s="121"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="118" t="s">
         <v>24</v>
       </c>
@@ -3579,67 +3678,67 @@
       <c r="C21" s="119"/>
       <c r="D21" s="119"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="119"/>
       <c r="B22" s="119"/>
       <c r="C22" s="119"/>
       <c r="D22" s="119"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="119"/>
       <c r="B23" s="119"/>
       <c r="C23" s="119"/>
       <c r="D23" s="119"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="119"/>
       <c r="B24" s="119"/>
       <c r="C24" s="119"/>
       <c r="D24" s="119"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="119"/>
       <c r="B25" s="119"/>
       <c r="C25" s="119"/>
       <c r="D25" s="119"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="119"/>
       <c r="B26" s="119"/>
       <c r="C26" s="119"/>
       <c r="D26" s="119"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="119"/>
       <c r="B27" s="119"/>
       <c r="C27" s="119"/>
       <c r="D27" s="119"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="119"/>
       <c r="B28" s="119"/>
       <c r="C28" s="119"/>
       <c r="D28" s="119"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="119"/>
       <c r="B29" s="119"/>
       <c r="C29" s="119"/>
       <c r="D29" s="119"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="119"/>
       <c r="B30" s="119"/>
       <c r="C30" s="119"/>
       <c r="D30" s="119"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="119"/>
       <c r="B31" s="119"/>
       <c r="C31" s="119"/>
       <c r="D31" s="119"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="119"/>
       <c r="B32" s="119"/>
       <c r="C32" s="119"/>
@@ -3674,12 +3773,12 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="140" t="s">
         <v>26</v>
       </c>
@@ -3706,7 +3805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="143"/>
       <c r="B2" s="144"/>
       <c r="C2" s="144"/>
@@ -3723,7 +3822,7 @@
       <c r="N2" s="21"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:D2"/>
@@ -3737,10 +3836,20 @@
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="00b68e39924f37ea7b1a5acaf8857e0e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1760b117eeeff4f4de69ce8d4b9089c6" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -3941,15 +4050,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3962,13 +4062,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43622555-DB26-4B15-92BC-B9CC446ACC59}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACAB2826-A1F7-4576-972B-3B9B20B8F36F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACAB2826-A1F7-4576-972B-3B9B20B8F36F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43622555-DB26-4B15-92BC-B9CC446ACC59}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65F7BB6A-92B2-4AC8-861A-215DF27D5CAE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65F7BB6A-92B2-4AC8-861A-215DF27D5CAE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/group/06_robo_dog_3/設計書/ユースケース駆動開発_分析設計書_テンプレート.xlsx
+++ b/group/06_robo_dog_3/設計書/ユースケース駆動開発_分析設計書_テンプレート.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\azrfilsrv01\部門\情報ITクリエイター事業部\10_情報処理教育\20_実習科目教育\05_実習科目資料\2024年度入学生\26_オブジェクト指向分析設計\履修科目認定試験\第1回\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t_fujita\Desktop\develop\ohara_uml\ohara_uml\group\06_robo_dog_3\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88558586-032E-4A85-A9AF-A0F4E1A71CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93449D18-52C4-43EE-A06B-804E5F589A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="企画書" sheetId="14" r:id="rId1"/>
@@ -1278,94 +1278,124 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1374,31 +1404,28 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1416,54 +1443,153 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1473,132 +1599,6 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1623,7 +1623,7 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1650,7 +1650,7 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1695,7 +1695,7 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1735,6 +1735,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>175437</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>99134</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{837969F7-4218-74CD-DEC3-C4397BF2CA57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4921250" y="1435100"/>
+          <a:ext cx="5820587" cy="5077534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2005,13 +2060,13 @@
   </sheetPr>
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2038,7 +2093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -2055,7 +2110,7 @@
       <c r="N2" s="21"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:D2"/>
@@ -2083,9 +2138,9 @@
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="146" t="s">
         <v>27</v>
       </c>
@@ -2112,43 +2167,43 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="149"/>
       <c r="B2" s="150"/>
       <c r="C2" s="150"/>
       <c r="D2" s="151"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="86"/>
-    </row>
-    <row r="3" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="E2" s="95"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="83"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="149"/>
       <c r="B3" s="150"/>
       <c r="C3" s="150"/>
       <c r="D3" s="151"/>
-      <c r="E3" s="106" t="s">
+      <c r="E3" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="87"/>
-    </row>
-    <row r="4" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="84"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="152"/>
       <c r="B4" s="153"/>
       <c r="C4" s="153"/>
@@ -2158,14 +2213,14 @@
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="16"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="117"/>
-      <c r="M4" s="115"/>
-      <c r="N4" s="117"/>
-      <c r="O4" s="88"/>
-    </row>
-    <row r="5" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="85"/>
+    </row>
+    <row r="5" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="O2:O4"/>
@@ -2196,9 +2251,9 @@
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -2225,7 +2280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -2242,8 +2297,8 @@
       <c r="N2" s="21"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="4" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -2257,7 +2312,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2271,7 +2326,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -2285,7 +2340,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -2299,7 +2354,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2313,7 +2368,7 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -2327,7 +2382,7 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -2341,7 +2396,7 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -2355,7 +2410,7 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -2369,7 +2424,7 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -2383,7 +2438,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -2397,7 +2452,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -2411,7 +2466,7 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="1:15" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -2425,7 +2480,7 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="2:13" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:13" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -2439,7 +2494,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="2:13" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:13" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -2453,7 +2508,7 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="2:13" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:13" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -2494,9 +2549,9 @@
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="27" t="s">
         <v>6</v>
       </c>
@@ -2523,7 +2578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="30"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -2540,7 +2595,7 @@
       <c r="N2" s="21"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:D2"/>
@@ -2568,9 +2623,9 @@
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="33" t="s">
         <v>7</v>
       </c>
@@ -2597,7 +2652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="36"/>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
@@ -2614,7 +2669,7 @@
       <c r="N2" s="21"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:D2"/>
@@ -2638,19 +2693,19 @@
   </sheetPr>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="62"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="11" t="s">
         <v>1</v>
       </c>
@@ -2671,11 +2726,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="65"/>
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
       <c r="E2" s="14"/>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
@@ -2684,108 +2739,99 @@
       <c r="J2" s="14"/>
       <c r="K2" s="15"/>
       <c r="L2" s="16"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="58"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="42"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:15" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="4" spans="1:15" ht="27.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="59" t="s">
+    <row r="3" spans="1:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="4" spans="1:15" ht="27.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="46"/>
-    </row>
-    <row r="5" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="55"/>
+    </row>
+    <row r="5" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="39"/>
       <c r="B5" s="40"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="48"/>
-    </row>
-    <row r="6" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="52"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="56"/>
-    </row>
-    <row r="7" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="52"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="56"/>
-    </row>
-    <row r="8" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="52"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="56"/>
-    </row>
-    <row r="9" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="52"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="56"/>
-    </row>
-    <row r="10" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="52"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="56"/>
-    </row>
-    <row r="11" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="57"/>
+    </row>
+    <row r="6" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="65"/>
+    </row>
+    <row r="7" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="65"/>
+    </row>
+    <row r="8" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
+    </row>
+    <row r="9" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="61"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
+    </row>
+    <row r="10" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="61"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
+    </row>
+    <row r="11" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="39"/>
       <c r="B11" s="40"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51"/>
-    </row>
-    <row r="12" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="41"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="44"/>
-    </row>
-    <row r="13" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="60"/>
+    </row>
+    <row r="12" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="51"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="54"/>
+    </row>
+    <row r="13" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="J1:L1"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
@@ -2802,6 +2848,15 @@
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:L1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2820,15 +2875,15 @@
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="91"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="88"/>
       <c r="E1" s="11" t="s">
         <v>1</v>
       </c>
@@ -2849,237 +2904,230 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="92"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="86"/>
-    </row>
-    <row r="3" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="92"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="106" t="s">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="89"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="83"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="89"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="87"/>
-    </row>
-    <row r="4" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="95"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="97"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="84"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="92"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="14"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="16"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="117"/>
-      <c r="M4" s="115"/>
-      <c r="N4" s="117"/>
-      <c r="O4" s="88"/>
-    </row>
-    <row r="5" spans="1:15" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="6" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="101" t="s">
+      <c r="J4" s="80"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="85"/>
+    </row>
+    <row r="5" spans="1:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="6" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B6" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="102"/>
-      <c r="D6" s="103" t="s">
+      <c r="C6" s="67"/>
+      <c r="D6" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="105"/>
-    </row>
-    <row r="7" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="84" t="s">
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="70"/>
+    </row>
+    <row r="7" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B7" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="85"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="80"/>
-    </row>
-    <row r="8" spans="1:15" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="66" t="s">
+      <c r="C7" s="112"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="104"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B8" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="83"/>
-    </row>
-    <row r="9" spans="1:15" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="66" t="s">
+      <c r="C8" s="101"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="107"/>
+    </row>
+    <row r="9" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B9" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="83"/>
-    </row>
-    <row r="10" spans="1:15" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="66" t="s">
+      <c r="C9" s="101"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="106"/>
+      <c r="M9" s="107"/>
+    </row>
+    <row r="10" spans="1:15" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="72"/>
-    </row>
-    <row r="11" spans="1:15" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="66" t="s">
+      <c r="C10" s="101"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="110"/>
+    </row>
+    <row r="11" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B11" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="83"/>
-    </row>
-    <row r="12" spans="1:15" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="66" t="s">
+      <c r="C11" s="101"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="106"/>
+      <c r="M11" s="107"/>
+    </row>
+    <row r="12" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B12" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="77"/>
-    </row>
-    <row r="13" spans="1:15" ht="219.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="66" t="s">
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="100"/>
+    </row>
+    <row r="13" spans="1:15" ht="219.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B13" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="72"/>
-    </row>
-    <row r="14" spans="1:15" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="66" t="s">
+      <c r="C13" s="101"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="109"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="110"/>
+    </row>
+    <row r="14" spans="1:15" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B14" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="72"/>
-    </row>
-    <row r="15" spans="1:15" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="68" t="s">
+      <c r="C14" s="101"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="110"/>
+    </row>
+    <row r="15" spans="1:15" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B15" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="75"/>
-    </row>
-    <row r="16" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="116"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="116"/>
+      <c r="K15" s="116"/>
+      <c r="L15" s="116"/>
+      <c r="M15" s="117"/>
+    </row>
+    <row r="16" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="J2:L4"/>
-    <mergeCell ref="M2:N4"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D13:M13"/>
+    <mergeCell ref="D14:M14"/>
+    <mergeCell ref="D15:M15"/>
     <mergeCell ref="B12:M12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D7:M7"/>
@@ -3092,11 +3140,18 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D13:M13"/>
-    <mergeCell ref="D14:M14"/>
-    <mergeCell ref="D15:M15"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="J2:L4"/>
+    <mergeCell ref="M2:N4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3111,13 +3166,13 @@
   </sheetPr>
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="122" t="s">
         <v>22</v>
       </c>
@@ -3144,43 +3199,43 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="125"/>
       <c r="B2" s="126"/>
       <c r="C2" s="126"/>
       <c r="D2" s="127"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="86"/>
-    </row>
-    <row r="3" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="E2" s="95"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="83"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="125"/>
       <c r="B3" s="126"/>
       <c r="C3" s="126"/>
       <c r="D3" s="127"/>
-      <c r="E3" s="106" t="s">
+      <c r="E3" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="87"/>
-    </row>
-    <row r="4" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="84"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="128"/>
       <c r="B4" s="129"/>
       <c r="C4" s="129"/>
@@ -3190,15 +3245,15 @@
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="16"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="117"/>
-      <c r="M4" s="115"/>
-      <c r="N4" s="117"/>
-      <c r="O4" s="88"/>
-    </row>
-    <row r="5" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J4" s="80"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="85"/>
+    </row>
+    <row r="5" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="120" t="s">
         <v>23</v>
       </c>
@@ -3206,91 +3261,91 @@
       <c r="C6" s="121"/>
       <c r="D6" s="121"/>
     </row>
-    <row r="7" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="121"/>
       <c r="B7" s="121"/>
       <c r="C7" s="121"/>
       <c r="D7" s="121"/>
     </row>
-    <row r="8" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="121"/>
       <c r="B8" s="121"/>
       <c r="C8" s="121"/>
       <c r="D8" s="121"/>
     </row>
-    <row r="9" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="121"/>
       <c r="B9" s="121"/>
       <c r="C9" s="121"/>
       <c r="D9" s="121"/>
     </row>
-    <row r="10" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="121"/>
       <c r="B10" s="121"/>
       <c r="C10" s="121"/>
       <c r="D10" s="121"/>
     </row>
-    <row r="11" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="121"/>
       <c r="B11" s="121"/>
       <c r="C11" s="121"/>
       <c r="D11" s="121"/>
     </row>
-    <row r="12" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="121"/>
       <c r="B12" s="121"/>
       <c r="C12" s="121"/>
       <c r="D12" s="121"/>
     </row>
-    <row r="13" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="121"/>
       <c r="B13" s="121"/>
       <c r="C13" s="121"/>
       <c r="D13" s="121"/>
     </row>
-    <row r="14" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="121"/>
       <c r="B14" s="121"/>
       <c r="C14" s="121"/>
       <c r="D14" s="121"/>
     </row>
-    <row r="15" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="121"/>
       <c r="B15" s="121"/>
       <c r="C15" s="121"/>
       <c r="D15" s="121"/>
     </row>
-    <row r="16" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="121"/>
       <c r="B16" s="121"/>
       <c r="C16" s="121"/>
       <c r="D16" s="121"/>
     </row>
-    <row r="17" spans="1:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="121"/>
       <c r="B17" s="121"/>
       <c r="C17" s="121"/>
       <c r="D17" s="121"/>
     </row>
-    <row r="18" spans="1:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="121"/>
       <c r="B18" s="121"/>
       <c r="C18" s="121"/>
       <c r="D18" s="121"/>
     </row>
-    <row r="19" spans="1:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="121"/>
       <c r="B19" s="121"/>
       <c r="C19" s="121"/>
       <c r="D19" s="121"/>
     </row>
-    <row r="20" spans="1:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="121"/>
       <c r="B20" s="121"/>
       <c r="C20" s="121"/>
       <c r="D20" s="121"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="118" t="s">
         <v>24</v>
       </c>
@@ -3298,67 +3353,67 @@
       <c r="C21" s="119"/>
       <c r="D21" s="119"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="119"/>
       <c r="B22" s="119"/>
       <c r="C22" s="119"/>
       <c r="D22" s="119"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="119"/>
       <c r="B23" s="119"/>
       <c r="C23" s="119"/>
       <c r="D23" s="119"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="119"/>
       <c r="B24" s="119"/>
       <c r="C24" s="119"/>
       <c r="D24" s="119"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="119"/>
       <c r="B25" s="119"/>
       <c r="C25" s="119"/>
       <c r="D25" s="119"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="119"/>
       <c r="B26" s="119"/>
       <c r="C26" s="119"/>
       <c r="D26" s="119"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="119"/>
       <c r="B27" s="119"/>
       <c r="C27" s="119"/>
       <c r="D27" s="119"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="119"/>
       <c r="B28" s="119"/>
       <c r="C28" s="119"/>
       <c r="D28" s="119"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="119"/>
       <c r="B29" s="119"/>
       <c r="C29" s="119"/>
       <c r="D29" s="119"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="119"/>
       <c r="B30" s="119"/>
       <c r="C30" s="119"/>
       <c r="D30" s="119"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="119"/>
       <c r="B31" s="119"/>
       <c r="C31" s="119"/>
       <c r="D31" s="119"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="119"/>
       <c r="B32" s="119"/>
       <c r="C32" s="119"/>
@@ -3382,6 +3437,7 @@
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3396,9 +3452,9 @@
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="131" t="s">
         <v>25</v>
       </c>
@@ -3425,43 +3481,43 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="134"/>
       <c r="B2" s="135"/>
       <c r="C2" s="135"/>
       <c r="D2" s="136"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="86"/>
-    </row>
-    <row r="3" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="E2" s="95"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="83"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="134"/>
       <c r="B3" s="135"/>
       <c r="C3" s="135"/>
       <c r="D3" s="136"/>
-      <c r="E3" s="106" t="s">
+      <c r="E3" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="87"/>
-    </row>
-    <row r="4" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="84"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="137"/>
       <c r="B4" s="138"/>
       <c r="C4" s="138"/>
@@ -3471,15 +3527,15 @@
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="16"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="117"/>
-      <c r="M4" s="115"/>
-      <c r="N4" s="117"/>
-      <c r="O4" s="88"/>
-    </row>
-    <row r="5" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J4" s="80"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="85"/>
+    </row>
+    <row r="5" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="120" t="s">
         <v>23</v>
       </c>
@@ -3487,91 +3543,91 @@
       <c r="C6" s="121"/>
       <c r="D6" s="121"/>
     </row>
-    <row r="7" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="121"/>
       <c r="B7" s="121"/>
       <c r="C7" s="121"/>
       <c r="D7" s="121"/>
     </row>
-    <row r="8" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="121"/>
       <c r="B8" s="121"/>
       <c r="C8" s="121"/>
       <c r="D8" s="121"/>
     </row>
-    <row r="9" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="121"/>
       <c r="B9" s="121"/>
       <c r="C9" s="121"/>
       <c r="D9" s="121"/>
     </row>
-    <row r="10" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="121"/>
       <c r="B10" s="121"/>
       <c r="C10" s="121"/>
       <c r="D10" s="121"/>
     </row>
-    <row r="11" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="121"/>
       <c r="B11" s="121"/>
       <c r="C11" s="121"/>
       <c r="D11" s="121"/>
     </row>
-    <row r="12" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="121"/>
       <c r="B12" s="121"/>
       <c r="C12" s="121"/>
       <c r="D12" s="121"/>
     </row>
-    <row r="13" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="121"/>
       <c r="B13" s="121"/>
       <c r="C13" s="121"/>
       <c r="D13" s="121"/>
     </row>
-    <row r="14" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="121"/>
       <c r="B14" s="121"/>
       <c r="C14" s="121"/>
       <c r="D14" s="121"/>
     </row>
-    <row r="15" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="121"/>
       <c r="B15" s="121"/>
       <c r="C15" s="121"/>
       <c r="D15" s="121"/>
     </row>
-    <row r="16" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="121"/>
       <c r="B16" s="121"/>
       <c r="C16" s="121"/>
       <c r="D16" s="121"/>
     </row>
-    <row r="17" spans="1:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="121"/>
       <c r="B17" s="121"/>
       <c r="C17" s="121"/>
       <c r="D17" s="121"/>
     </row>
-    <row r="18" spans="1:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="121"/>
       <c r="B18" s="121"/>
       <c r="C18" s="121"/>
       <c r="D18" s="121"/>
     </row>
-    <row r="19" spans="1:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="121"/>
       <c r="B19" s="121"/>
       <c r="C19" s="121"/>
       <c r="D19" s="121"/>
     </row>
-    <row r="20" spans="1:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="121"/>
       <c r="B20" s="121"/>
       <c r="C20" s="121"/>
       <c r="D20" s="121"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="118" t="s">
         <v>24</v>
       </c>
@@ -3579,67 +3635,67 @@
       <c r="C21" s="119"/>
       <c r="D21" s="119"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="119"/>
       <c r="B22" s="119"/>
       <c r="C22" s="119"/>
       <c r="D22" s="119"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="119"/>
       <c r="B23" s="119"/>
       <c r="C23" s="119"/>
       <c r="D23" s="119"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="119"/>
       <c r="B24" s="119"/>
       <c r="C24" s="119"/>
       <c r="D24" s="119"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="119"/>
       <c r="B25" s="119"/>
       <c r="C25" s="119"/>
       <c r="D25" s="119"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="119"/>
       <c r="B26" s="119"/>
       <c r="C26" s="119"/>
       <c r="D26" s="119"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="119"/>
       <c r="B27" s="119"/>
       <c r="C27" s="119"/>
       <c r="D27" s="119"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="119"/>
       <c r="B28" s="119"/>
       <c r="C28" s="119"/>
       <c r="D28" s="119"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="119"/>
       <c r="B29" s="119"/>
       <c r="C29" s="119"/>
       <c r="D29" s="119"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="119"/>
       <c r="B30" s="119"/>
       <c r="C30" s="119"/>
       <c r="D30" s="119"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="119"/>
       <c r="B31" s="119"/>
       <c r="C31" s="119"/>
       <c r="D31" s="119"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="119"/>
       <c r="B32" s="119"/>
       <c r="C32" s="119"/>
@@ -3677,9 +3733,9 @@
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="140" t="s">
         <v>26</v>
       </c>
@@ -3706,7 +3762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="143"/>
       <c r="B2" s="144"/>
       <c r="C2" s="144"/>
@@ -3723,7 +3779,7 @@
       <c r="N2" s="21"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:D2"/>
@@ -3741,6 +3797,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="00b68e39924f37ea7b1a5acaf8857e0e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1760b117eeeff4f4de69ce8d4b9089c6" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -3941,15 +4006,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3962,13 +4018,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43622555-DB26-4B15-92BC-B9CC446ACC59}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACAB2826-A1F7-4576-972B-3B9B20B8F36F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACAB2826-A1F7-4576-972B-3B9B20B8F36F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43622555-DB26-4B15-92BC-B9CC446ACC59}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65F7BB6A-92B2-4AC8-861A-215DF27D5CAE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65F7BB6A-92B2-4AC8-861A-215DF27D5CAE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/group/06_robo_dog_3/設計書/ユースケース駆動開発_分析設計書_テンプレート.xlsx
+++ b/group/06_robo_dog_3/設計書/ユースケース駆動開発_分析設計書_テンプレート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t_fujita\Desktop\develop\ohara_uml\ohara_uml\group\06_robo_dog_3\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93449D18-52C4-43EE-A06B-804E5F589A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAB2AF0-04C7-43D6-9297-FD63EE3EE454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="企画書" sheetId="14" r:id="rId1"/>
@@ -1368,47 +1368,20 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1443,6 +1416,138 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1493,111 +1598,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1735,61 +1735,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>175437</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>99134</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{837969F7-4218-74CD-DEC3-C4397BF2CA57}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4921250" y="1435100"/>
-          <a:ext cx="5820587" cy="5077534"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2172,36 +2117,36 @@
       <c r="B2" s="150"/>
       <c r="C2" s="150"/>
       <c r="D2" s="151"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="83"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="86"/>
     </row>
     <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="149"/>
       <c r="B3" s="150"/>
       <c r="C3" s="150"/>
       <c r="D3" s="151"/>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="84"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="87"/>
     </row>
     <row r="4" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="152"/>
@@ -2213,12 +2158,12 @@
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="16"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="85"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="115"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="88"/>
     </row>
     <row r="5" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
@@ -2700,12 +2645,12 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="62"/>
       <c r="E1" s="11" t="s">
         <v>1</v>
       </c>
@@ -2727,10 +2672,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
       <c r="E2" s="14"/>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
@@ -2739,99 +2684,108 @@
       <c r="J2" s="14"/>
       <c r="K2" s="15"/>
       <c r="L2" s="16"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="42"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="58"/>
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="4" spans="1:15" ht="27.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="55"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="46"/>
     </row>
     <row r="5" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="39"/>
       <c r="B5" s="40"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="57"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="48"/>
     </row>
     <row r="6" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="65"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="56"/>
     </row>
     <row r="7" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="61"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="56"/>
     </row>
     <row r="8" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="61"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="65"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="56"/>
     </row>
     <row r="9" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="61"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="56"/>
     </row>
     <row r="10" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="61"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="56"/>
     </row>
     <row r="11" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="39"/>
       <c r="B11" s="40"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="60"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="51"/>
     </row>
     <row r="12" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="51"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="54"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="44"/>
     </row>
     <row r="13" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:L1"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
@@ -2848,15 +2802,6 @@
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="J1:L1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2871,19 +2816,19 @@
   </sheetPr>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91"/>
       <c r="E1" s="11" t="s">
         <v>1</v>
       </c>
@@ -2905,229 +2850,236 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="89"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="83"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="86"/>
     </row>
     <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="89"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="71" t="s">
+      <c r="A3" s="92"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="84"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="87"/>
     </row>
     <row r="4" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="92"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="94"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="97"/>
       <c r="E4" s="14"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="16"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="85"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="115"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="88"/>
     </row>
     <row r="5" spans="1:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="6" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="68" t="s">
+      <c r="C6" s="102"/>
+      <c r="D6" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="70"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="105"/>
     </row>
     <row r="7" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="104"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="80"/>
     </row>
     <row r="8" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="107"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="83"/>
     </row>
     <row r="9" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="101"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="107"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="83"/>
     </row>
     <row r="10" spans="1:15" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="101"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="110"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="72"/>
     </row>
     <row r="11" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="101"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="106"/>
-      <c r="L11" s="106"/>
-      <c r="M11" s="107"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="83"/>
     </row>
     <row r="12" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B12" s="98" t="s">
+      <c r="B12" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="100"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="77"/>
     </row>
     <row r="13" spans="1:15" ht="219.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="101"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="109"/>
-      <c r="L13" s="109"/>
-      <c r="M13" s="110"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="72"/>
     </row>
     <row r="14" spans="1:15" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="101"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="109"/>
-      <c r="H14" s="109"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="109"/>
-      <c r="L14" s="109"/>
-      <c r="M14" s="110"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="72"/>
     </row>
     <row r="15" spans="1:15" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B15" s="113" t="s">
+      <c r="B15" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="114"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="116"/>
-      <c r="J15" s="116"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="116"/>
-      <c r="M15" s="117"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="75"/>
     </row>
     <row r="16" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D13:M13"/>
-    <mergeCell ref="D14:M14"/>
-    <mergeCell ref="D15:M15"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="J2:L4"/>
+    <mergeCell ref="M2:N4"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="E2:I2"/>
     <mergeCell ref="B12:M12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D7:M7"/>
@@ -3140,18 +3092,11 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="J2:L4"/>
-    <mergeCell ref="M2:N4"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D13:M13"/>
+    <mergeCell ref="D14:M14"/>
+    <mergeCell ref="D15:M15"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3166,7 +3111,7 @@
   </sheetPr>
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -3204,36 +3149,36 @@
       <c r="B2" s="126"/>
       <c r="C2" s="126"/>
       <c r="D2" s="127"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="83"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="86"/>
     </row>
     <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="125"/>
       <c r="B3" s="126"/>
       <c r="C3" s="126"/>
       <c r="D3" s="127"/>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="84"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="87"/>
     </row>
     <row r="4" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="128"/>
@@ -3245,12 +3190,12 @@
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="16"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="85"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="115"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="88"/>
     </row>
     <row r="5" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="6" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3437,7 +3382,6 @@
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3486,36 +3430,36 @@
       <c r="B2" s="135"/>
       <c r="C2" s="135"/>
       <c r="D2" s="136"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="83"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="86"/>
     </row>
     <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="134"/>
       <c r="B3" s="135"/>
       <c r="C3" s="135"/>
       <c r="D3" s="136"/>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="84"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="87"/>
     </row>
     <row r="4" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="137"/>
@@ -3527,12 +3471,12 @@
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="16"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="85"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="115"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="88"/>
     </row>
     <row r="5" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="6" spans="1:15" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3797,15 +3741,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="00b68e39924f37ea7b1a5acaf8857e0e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1760b117eeeff4f4de69ce8d4b9089c6" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -4006,6 +3941,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4018,14 +3962,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACAB2826-A1F7-4576-972B-3B9B20B8F36F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43622555-DB26-4B15-92BC-B9CC446ACC59}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4044,6 +3980,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACAB2826-A1F7-4576-972B-3B9B20B8F36F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65F7BB6A-92B2-4AC8-861A-215DF27D5CAE}">
   <ds:schemaRefs>
